--- a/hw/Project2_ColumnsManipulation.xlsx
+++ b/hw/Project2_ColumnsManipulation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\psu\git\897\hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\897\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
   <si>
     <t>MS.SubClass</t>
   </si>
@@ -345,28 +345,64 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "(Intercept)"         "AlleyPave"           "Alleynone"           "Lot.ShapeReg"        "Lot.ConfigCulDSac"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [6] "Lot.ConfigFR2"       "NeighborhoodCrawfor" "NeighborhoodGilbert" "NeighborhoodGreens"  "NeighborhoodNAmes"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] "NeighborhoodNridgHt" "NeighborhoodSomerst" "NeighborhoodTimber"  "Condition.1Norm"     "Condition.2RRAe"    </t>
-  </si>
-  <si>
-    <t>[16] "House.Style2.5Fin"   "Overall.Qual"        "Overall.Cond"        "Year.Remod.Add"      "Exterior.1stPlywood"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[21] "Exterior.1stPreCast" "Exterior.1stVinylSd" "Exterior.2ndPreCast" "Exterior.2ndVinylSd" "Exter.QualTA"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[26] "FoundationPConc"     "Bsmt.QualTA"         "Bsmt.ExposureNo"     "BsmtFin.Type.1GLQ"   "BsmtFin.SF.1"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[31] "X2nd.Flr.SF"         "Kitchen.QualTA"      "FunctionalTyp"       "Fireplaces"          "Garage.Area"        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[36] "Open.Porch.SF"       "ln.Lot.Area"         "Total.Bath"          "tot.sqft"           </t>
+    <t xml:space="preserve">        (Intercept)           Alleynone   Lot.ConfigCulDSac       Lot.ConfigFR2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      -3.903474e+01        1.533546e-01        4.363150e-01       -3.172458e-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NeighborhoodCrawfor NeighborhoodGilbert  NeighborhoodGreens   NeighborhoodNAmes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.300081e+00       -5.388738e-01        2.055758e-01       -1.203856e-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NeighborhoodNridgHt NeighborhoodSomerst     Condition.1Norm     Condition.1PosN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       6.873615e-01        8.595484e-01        6.678859e-02        4.195148e-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Condition.2RRAe   House.Style2.5Fin        Overall.Qual        Overall.Cond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      -1.099793e+00       -1.398339e+00        7.138487e-01        8.681220e-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Year.Remod.Add   Roof.StyleGambrel    Roof.MatlMembran Exterior.1stPlywood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       8.545620e-03        4.209130e-02        1.529933e-01       -1.849486e-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior.1stPreCast Exterior.2ndPreCast Exterior.2ndVinylSd        Exter.QualTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       6.259635e-02        3.127249e-03        4.960444e-01       -3.260933e-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FoundationPConc         Bsmt.QualTA     Bsmt.ExposureNo   BsmtFin.Type.1GLQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.231502e-01       -1.412882e-01       -1.366792e-01        2.858735e-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       BsmtFin.SF.1         X2nd.Flr.SF      Kitchen.QualTA          Fireplaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       8.194084e-04        5.535411e-04       -7.626965e-01        3.324518e-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fireplace.QuGd         Garage.Area       Open.Porch.SF           Pool.QCTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.159327e-01        5.164974e-04        9.897150e-05        2.922404e-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Sale.TypeNew         ln.Lot.Area          Total.Bath            tot.sqft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       9.244340e-02        8.406739e-01        1.975929e-01        2.375806e-03 </t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,11 +1139,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="b">
+        <f>COUNTIF(E:E,"*"&amp;A1&amp;"*")&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="b">
+        <f>COUNTIF(F:F,"*"&amp;A1&amp;"*")&gt;0</f>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>74</v>
@@ -1118,7 +1159,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B2" t="b">
         <f>COUNTIF(E:E,"*"&amp;A2&amp;"*")&gt;0</f>
@@ -1126,25 +1167,25 @@
       </c>
       <c r="C2" t="b">
         <f>COUNTIF(F:F,"*"&amp;A2&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B3" t="b">
         <f>COUNTIF(E:E,"*"&amp;A3&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <f>COUNTIF(F:F,"*"&amp;A3&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B4" t="b">
         <f>COUNTIF(E:E,"*"&amp;A4&amp;"*")&gt;0</f>
@@ -1152,7 +1193,7 @@
       </c>
       <c r="C4" t="b">
         <f>COUNTIF(F:F,"*"&amp;A4&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>75</v>
@@ -1160,7 +1201,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B5" t="b">
         <f>COUNTIF(E:E,"*"&amp;A5&amp;"*")&gt;0</f>
@@ -1168,7 +1209,7 @@
       </c>
       <c r="C5" t="b">
         <f>COUNTIF(F:F,"*"&amp;A5&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>76</v>
@@ -1176,7 +1217,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" t="b">
         <f>COUNTIF(E:E,"*"&amp;A6&amp;"*")&gt;0</f>
@@ -1184,7 +1225,7 @@
       </c>
       <c r="C6" t="b">
         <f>COUNTIF(F:F,"*"&amp;A6&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>77</v>
@@ -1192,7 +1233,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <f>COUNTIF(E:E,"*"&amp;A7&amp;"*")&gt;0</f>
@@ -1200,7 +1241,7 @@
       </c>
       <c r="C7" t="b">
         <f>COUNTIF(F:F,"*"&amp;A7&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>78</v>
@@ -1208,15 +1249,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B8" t="b">
         <f>COUNTIF(E:E,"*"&amp;A8&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <f>COUNTIF(F:F,"*"&amp;A8&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
@@ -1224,15 +1265,15 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B9" t="b">
         <f>COUNTIF(E:E,"*"&amp;A9&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <f>COUNTIF(F:F,"*"&amp;A9&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>80</v>
@@ -1240,7 +1281,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B10" t="b">
         <f>COUNTIF(E:E,"*"&amp;A10&amp;"*")&gt;0</f>
@@ -1248,7 +1289,7 @@
       </c>
       <c r="C10" t="b">
         <f>COUNTIF(F:F,"*"&amp;A10&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>81</v>
@@ -1256,7 +1297,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <f>COUNTIF(E:E,"*"&amp;A11&amp;"*")&gt;0</f>
@@ -1264,7 +1305,7 @@
       </c>
       <c r="C11" t="b">
         <f>COUNTIF(F:F,"*"&amp;A11&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>82</v>
@@ -1272,7 +1313,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B12" t="b">
         <f>COUNTIF(E:E,"*"&amp;A12&amp;"*")&gt;0</f>
@@ -1280,7 +1321,7 @@
       </c>
       <c r="C12" t="b">
         <f>COUNTIF(F:F,"*"&amp;A12&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>83</v>
@@ -1288,7 +1329,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" t="b">
         <f>COUNTIF(E:E,"*"&amp;A13&amp;"*")&gt;0</f>
@@ -1296,7 +1337,7 @@
       </c>
       <c r="C13" t="b">
         <f>COUNTIF(F:F,"*"&amp;A13&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>84</v>
@@ -1304,7 +1345,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B14" t="b">
         <f>COUNTIF(E:E,"*"&amp;A14&amp;"*")&gt;0</f>
@@ -1312,7 +1353,7 @@
       </c>
       <c r="C14" t="b">
         <f>COUNTIF(F:F,"*"&amp;A14&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>85</v>
@@ -1320,7 +1361,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B15" t="b">
         <f>COUNTIF(E:E,"*"&amp;A15&amp;"*")&gt;0</f>
@@ -1328,7 +1369,7 @@
       </c>
       <c r="C15" t="b">
         <f>COUNTIF(F:F,"*"&amp;A15&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>86</v>
@@ -1336,36 +1377,36 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B16" t="b">
         <f>COUNTIF(E:E,"*"&amp;A16&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <f>COUNTIF(F:F,"*"&amp;A16&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B17" t="b">
         <f>COUNTIF(E:E,"*"&amp;A17&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <f>COUNTIF(F:F,"*"&amp;A17&amp;"*")&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
         <f>COUNTIF(E:E,"*"&amp;A18&amp;"*")&gt;0</f>
@@ -1373,15 +1414,15 @@
       </c>
       <c r="C18" t="b">
         <f>COUNTIF(F:F,"*"&amp;A18&amp;"*")&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" t="b">
         <f>COUNTIF(E:E,"*"&amp;A19&amp;"*")&gt;0</f>
@@ -1389,26 +1430,26 @@
       </c>
       <c r="C19" t="b">
         <f>COUNTIF(F:F,"*"&amp;A19&amp;"*")&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B20" t="b">
         <f>COUNTIF(E:E,"*"&amp;A20&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <f>COUNTIF(F:F,"*"&amp;A20&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>109</v>
       </c>
       <c r="L20" t="s">
@@ -1417,18 +1458,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B21" t="b">
         <f>COUNTIF(E:E,"*"&amp;A21&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <f>COUNTIF(F:F,"*"&amp;A21&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>110</v>
       </c>
       <c r="L21" t="s">
@@ -1437,41 +1478,41 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" t="b">
         <f>COUNTIF(E:E,"*"&amp;A22&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <f>COUNTIF(F:F,"*"&amp;A22&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B23" t="b">
         <f>COUNTIF(E:E,"*"&amp;A23&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <f>COUNTIF(F:F,"*"&amp;A23&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
         <f>COUNTIF(E:E,"*"&amp;A24&amp;"*")&gt;0</f>
@@ -1479,16 +1520,16 @@
       </c>
       <c r="C24" t="b">
         <f>COUNTIF(F:F,"*"&amp;A24&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B25" t="b">
         <f>COUNTIF(E:E,"*"&amp;A25&amp;"*")&gt;0</f>
@@ -1496,14 +1537,16 @@
       </c>
       <c r="C25" t="b">
         <f>COUNTIF(F:F,"*"&amp;A25&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" t="b">
         <f>COUNTIF(E:E,"*"&amp;A26&amp;"*")&gt;0</f>
@@ -1511,16 +1554,16 @@
       </c>
       <c r="C26" t="b">
         <f>COUNTIF(F:F,"*"&amp;A26&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="4" t="s">
-        <v>105</v>
+      <c r="F26" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B27" t="b">
         <f>COUNTIF(E:E,"*"&amp;A27&amp;"*")&gt;0</f>
@@ -1531,11 +1574,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <f>COUNTIF(E:E,"*"&amp;A28&amp;"*")&gt;0</f>
@@ -1546,11 +1591,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B29" t="b">
         <f>COUNTIF(E:E,"*"&amp;A29&amp;"*")&gt;0</f>
@@ -1561,11 +1608,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="b">
         <f>COUNTIF(E:E,"*"&amp;A30&amp;"*")&gt;0</f>
@@ -1576,11 +1625,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B31" t="b">
         <f>COUNTIF(E:E,"*"&amp;A31&amp;"*")&gt;0</f>
@@ -1591,25 +1642,29 @@
         <v>0</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <f>COUNTIF(E:E,"*"&amp;A32&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <f>COUNTIF(F:F,"*"&amp;A32&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B33" t="b">
         <f>COUNTIF(E:E,"*"&amp;A33&amp;"*")&gt;0</f>
@@ -1619,11 +1674,13 @@
         <f>COUNTIF(F:F,"*"&amp;A33&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B34" t="b">
         <f>COUNTIF(E:E,"*"&amp;A34&amp;"*")&gt;0</f>
@@ -1633,11 +1690,13 @@
         <f>COUNTIF(F:F,"*"&amp;A34&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B35" t="b">
         <f>COUNTIF(E:E,"*"&amp;A35&amp;"*")&gt;0</f>
@@ -1647,39 +1706,42 @@
         <f>COUNTIF(F:F,"*"&amp;A35&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="b">
         <f>COUNTIF(E:E,"*"&amp;A36&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
         <f>COUNTIF(F:F,"*"&amp;A36&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B37" t="b">
         <f>COUNTIF(E:E,"*"&amp;A37&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
         <f>COUNTIF(F:F,"*"&amp;A37&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B38" t="b">
         <f>COUNTIF(E:E,"*"&amp;A38&amp;"*")&gt;0</f>
@@ -1689,39 +1751,36 @@
         <f>COUNTIF(F:F,"*"&amp;A38&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B39" t="b">
         <f>COUNTIF(E:E,"*"&amp;A39&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
         <f>COUNTIF(F:F,"*"&amp;A39&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B40" t="b">
         <f>COUNTIF(E:E,"*"&amp;A40&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <f>COUNTIF(F:F,"*"&amp;A40&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B41" t="b">
         <f>COUNTIF(E:E,"*"&amp;A41&amp;"*")&gt;0</f>
@@ -1731,11 +1790,10 @@
         <f>COUNTIF(F:F,"*"&amp;A41&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B42" t="b">
         <f>COUNTIF(E:E,"*"&amp;A42&amp;"*")&gt;0</f>
@@ -1745,53 +1803,49 @@
         <f>COUNTIF(F:F,"*"&amp;A42&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B43" t="b">
         <f>COUNTIF(E:E,"*"&amp;A43&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="b">
         <f>COUNTIF(F:F,"*"&amp;A43&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B44" t="b">
         <f>COUNTIF(E:E,"*"&amp;A44&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
         <f>COUNTIF(F:F,"*"&amp;A44&amp;"*")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" t="b">
         <f>COUNTIF(E:E,"*"&amp;A45&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="b">
         <f>COUNTIF(F:F,"*"&amp;A45&amp;"*")&gt;0</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B46" t="b">
         <f>COUNTIF(E:E,"*"&amp;A46&amp;"*")&gt;0</f>
@@ -1799,41 +1853,41 @@
       </c>
       <c r="C46" t="b">
         <f>COUNTIF(F:F,"*"&amp;A46&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B47" t="b">
         <f>COUNTIF(E:E,"*"&amp;A47&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
         <f>COUNTIF(F:F,"*"&amp;A47&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B48" t="b">
         <f>COUNTIF(E:E,"*"&amp;A48&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
         <f>COUNTIF(F:F,"*"&amp;A48&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B49" t="b">
         <f>COUNTIF(E:E,"*"&amp;A49&amp;"*")&gt;0</f>
@@ -1841,13 +1895,13 @@
       </c>
       <c r="C49" t="b">
         <f>COUNTIF(F:F,"*"&amp;A49&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B50" t="b">
         <f>COUNTIF(E:E,"*"&amp;A50&amp;"*")&gt;0</f>
@@ -1855,13 +1909,13 @@
       </c>
       <c r="C50" t="b">
         <f>COUNTIF(F:F,"*"&amp;A50&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B51" t="b">
         <f>COUNTIF(E:E,"*"&amp;A51&amp;"*")&gt;0</f>
@@ -1869,13 +1923,13 @@
       </c>
       <c r="C51" t="b">
         <f>COUNTIF(F:F,"*"&amp;A51&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B52" t="b">
         <f>COUNTIF(E:E,"*"&amp;A52&amp;"*")&gt;0</f>
@@ -1883,13 +1937,13 @@
       </c>
       <c r="C52" t="b">
         <f>COUNTIF(F:F,"*"&amp;A52&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B53" t="b">
         <f>COUNTIF(E:E,"*"&amp;A53&amp;"*")&gt;0</f>
@@ -1897,13 +1951,13 @@
       </c>
       <c r="C53" t="b">
         <f>COUNTIF(F:F,"*"&amp;A53&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B54" t="b">
         <f>COUNTIF(E:E,"*"&amp;A54&amp;"*")&gt;0</f>
@@ -1911,55 +1965,55 @@
       </c>
       <c r="C54" t="b">
         <f>COUNTIF(F:F,"*"&amp;A54&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B55" t="b">
         <f>COUNTIF(E:E,"*"&amp;A55&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="b">
         <f>COUNTIF(F:F,"*"&amp;A55&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B56" t="b">
         <f>COUNTIF(E:E,"*"&amp;A56&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
         <f>COUNTIF(F:F,"*"&amp;A56&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B57" t="b">
         <f>COUNTIF(E:E,"*"&amp;A57&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
         <f>COUNTIF(F:F,"*"&amp;A57&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B58" t="b">
         <f>COUNTIF(E:E,"*"&amp;A58&amp;"*")&gt;0</f>
@@ -1967,97 +2021,97 @@
       </c>
       <c r="C58" t="b">
         <f>COUNTIF(F:F,"*"&amp;A58&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B59" t="b">
         <f>COUNTIF(E:E,"*"&amp;A59&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
         <f>COUNTIF(F:F,"*"&amp;A59&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B60" t="b">
         <f>COUNTIF(E:E,"*"&amp;A60&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
         <f>COUNTIF(F:F,"*"&amp;A60&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B61" t="b">
         <f>COUNTIF(E:E,"*"&amp;A61&amp;"*")&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
         <f>COUNTIF(F:F,"*"&amp;A61&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B62" t="b">
         <f>COUNTIF(E:E,"*"&amp;A62&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
         <f>COUNTIF(F:F,"*"&amp;A62&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B63" t="b">
         <f>COUNTIF(E:E,"*"&amp;A63&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="b">
         <f>COUNTIF(F:F,"*"&amp;A63&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B64" t="b">
         <f>COUNTIF(E:E,"*"&amp;A64&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="b">
         <f>COUNTIF(F:F,"*"&amp;A64&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B65" t="b">
         <f>COUNTIF(E:E,"*"&amp;A65&amp;"*")&gt;0</f>
@@ -2065,13 +2119,13 @@
       </c>
       <c r="C65" t="b">
         <f>COUNTIF(F:F,"*"&amp;A65&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B66" t="b">
         <f>COUNTIF(E:E,"*"&amp;A66&amp;"*")&gt;0</f>
@@ -2079,21 +2133,16 @@
       </c>
       <c r="C66" t="b">
         <f>COUNTIF(F:F,"*"&amp;A66&amp;"*")&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" t="b">
-        <f>COUNTIF(E:E,"*"&amp;A67&amp;"*")&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="C67" t="b">
-        <f>COUNTIF(F:F,"*"&amp;A67&amp;"*")&gt;0</f>
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>105</v>
@@ -2101,7 +2150,7 @@
     </row>
   </sheetData>
   <sortState ref="A1:C67">
-    <sortCondition ref="C1:C67"/>
+    <sortCondition descending="1" ref="C1:C67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
